--- a/data_processed/20250818/BTCUSDVOLSURFACE_REGULARIZED_20250818.xlsx
+++ b/data_processed/20250818/BTCUSDVOLSURFACE_REGULARIZED_20250818.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -5980,7 +5980,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6241,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6415,7 +6415,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6444,7 +6444,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6502,7 +6502,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6618,7 +6618,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6676,7 +6676,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6705,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6763,7 +6763,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6962,7 +6962,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -7020,7 +7020,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13248,7 +13248,7 @@
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -18767,7 +18767,7 @@
       </c>
       <c r="G714" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -22841,7 +22841,7 @@
       </c>
       <c r="G876" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -29984,7 +29984,7 @@
       </c>
       <c r="G1159" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -35187,7 +35187,7 @@
       </c>
       <c r="G1366" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35274,7 +35274,7 @@
       </c>
       <c r="G1369" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35332,7 +35332,7 @@
       </c>
       <c r="G1371" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35361,7 +35361,7 @@
       </c>
       <c r="G1372" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35419,7 +35419,7 @@
       </c>
       <c r="G1374" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35473,7 +35473,7 @@
       </c>
       <c r="G1376" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35610,7 +35610,7 @@
       </c>
       <c r="G1381" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -35926,7 +35926,7 @@
       </c>
       <c r="G1393" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -35955,7 +35955,7 @@
       </c>
       <c r="G1394" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36092,7 +36092,7 @@
       </c>
       <c r="G1399" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -36121,7 +36121,7 @@
       </c>
       <c r="G1400" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36150,7 +36150,7 @@
       </c>
       <c r="G1401" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36262,7 +36262,7 @@
       </c>
       <c r="G1405" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -36291,7 +36291,7 @@
       </c>
       <c r="G1406" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36349,7 +36349,7 @@
       </c>
       <c r="G1408" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36428,7 +36428,7 @@
       </c>
       <c r="G1411" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36457,7 +36457,7 @@
       </c>
       <c r="G1412" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36486,7 +36486,7 @@
       </c>
       <c r="G1413" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -37164,7 +37164,7 @@
       </c>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37421,7 +37421,7 @@
       </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -37504,7 +37504,7 @@
       </c>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -37920,7 +37920,7 @@
       </c>
       <c r="G1467" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -38061,7 +38061,7 @@
       </c>
       <c r="G1472" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -38090,7 +38090,7 @@
       </c>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38264,7 +38264,7 @@
       </c>
       <c r="G1479" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38434,7 +38434,7 @@
       </c>
       <c r="G1485" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38929,7 +38929,7 @@
       </c>
       <c r="G1504" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39161,7 +39161,7 @@
       </c>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39190,7 +39190,7 @@
       </c>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -39306,7 +39306,7 @@
       </c>
       <c r="G1517" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39364,7 +39364,7 @@
       </c>
       <c r="G1519" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -40113,7 +40113,7 @@
       </c>
       <c r="G1548" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -40142,7 +40142,7 @@
       </c>
       <c r="G1549" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -40200,7 +40200,7 @@
       </c>
       <c r="G1551" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -40258,7 +40258,7 @@
       </c>
       <c r="G1553" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -40316,7 +40316,7 @@
       </c>
       <c r="G1555" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -40403,7 +40403,7 @@
       </c>
       <c r="G1558" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -40544,7 +40544,7 @@
       </c>
       <c r="G1563" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -41405,7 +41405,7 @@
       </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42307,7 +42307,7 @@
       </c>
       <c r="G1630" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42415,7 +42415,7 @@
       </c>
       <c r="G1634" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250818/BTCUSDVOLSURFACE_REGULARIZED_20250818.xlsx
+++ b/data_processed/20250818/BTCUSDVOLSURFACE_REGULARIZED_20250818.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -5980,7 +5980,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6241,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6415,7 +6415,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6444,7 +6444,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6502,7 +6502,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6618,7 +6618,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6676,7 +6676,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6705,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6763,7 +6763,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6962,7 +6962,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -7020,7 +7020,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -13248,7 +13248,7 @@
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -18767,7 +18767,7 @@
       </c>
       <c r="G714" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -22841,7 +22841,7 @@
       </c>
       <c r="G876" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -29984,7 +29984,7 @@
       </c>
       <c r="G1159" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -35187,7 +35187,7 @@
       </c>
       <c r="G1366" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35274,7 +35274,7 @@
       </c>
       <c r="G1369" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -35332,7 +35332,7 @@
       </c>
       <c r="G1371" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35361,7 +35361,7 @@
       </c>
       <c r="G1372" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -35419,7 +35419,7 @@
       </c>
       <c r="G1374" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35473,7 +35473,7 @@
       </c>
       <c r="G1376" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35610,7 +35610,7 @@
       </c>
       <c r="G1381" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -35926,7 +35926,7 @@
       </c>
       <c r="G1393" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -35955,7 +35955,7 @@
       </c>
       <c r="G1394" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -36092,7 +36092,7 @@
       </c>
       <c r="G1399" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -36121,7 +36121,7 @@
       </c>
       <c r="G1400" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -36150,7 +36150,7 @@
       </c>
       <c r="G1401" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -36262,7 +36262,7 @@
       </c>
       <c r="G1405" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -36291,7 +36291,7 @@
       </c>
       <c r="G1406" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -36349,7 +36349,7 @@
       </c>
       <c r="G1408" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -36428,7 +36428,7 @@
       </c>
       <c r="G1411" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36457,7 +36457,7 @@
       </c>
       <c r="G1412" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -36486,7 +36486,7 @@
       </c>
       <c r="G1413" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -37164,7 +37164,7 @@
       </c>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -37421,7 +37421,7 @@
       </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -37504,7 +37504,7 @@
       </c>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -37920,7 +37920,7 @@
       </c>
       <c r="G1467" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -38061,7 +38061,7 @@
       </c>
       <c r="G1472" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -38090,7 +38090,7 @@
       </c>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38264,7 +38264,7 @@
       </c>
       <c r="G1479" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38434,7 +38434,7 @@
       </c>
       <c r="G1485" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38929,7 +38929,7 @@
       </c>
       <c r="G1504" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -39161,7 +39161,7 @@
       </c>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -39190,7 +39190,7 @@
       </c>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -39306,7 +39306,7 @@
       </c>
       <c r="G1517" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -39364,7 +39364,7 @@
       </c>
       <c r="G1519" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -40113,7 +40113,7 @@
       </c>
       <c r="G1548" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -40142,7 +40142,7 @@
       </c>
       <c r="G1549" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -40200,7 +40200,7 @@
       </c>
       <c r="G1551" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -40258,7 +40258,7 @@
       </c>
       <c r="G1553" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -40316,7 +40316,7 @@
       </c>
       <c r="G1555" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -40403,7 +40403,7 @@
       </c>
       <c r="G1558" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -40544,7 +40544,7 @@
       </c>
       <c r="G1563" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -41405,7 +41405,7 @@
       </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -42307,7 +42307,7 @@
       </c>
       <c r="G1630" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -42415,7 +42415,7 @@
       </c>
       <c r="G1634" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
